--- a/names.xlsx
+++ b/names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="103">
   <si>
     <t xml:space="preserve">Имя</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Анастасия</t>
   </si>
   <si>
-    <t xml:space="preserve">Давид -</t>
+    <t xml:space="preserve">Давид</t>
   </si>
   <si>
     <t xml:space="preserve">Константин</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Алексей</t>
   </si>
   <si>
-    <t xml:space="preserve">Артём -</t>
+    <t xml:space="preserve">Артём</t>
   </si>
   <si>
     <t xml:space="preserve">ВШЭ Пермь</t>
@@ -244,9 +244,6 @@
     <t xml:space="preserve">Агаширин</t>
   </si>
   <si>
-    <t xml:space="preserve">Артём</t>
-  </si>
-  <si>
     <t xml:space="preserve">Владимир</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">Варвара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давид</t>
   </si>
   <si>
     <t xml:space="preserve">Амина</t>
@@ -466,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A207" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D231" activeCellId="0" sqref="D231"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>50</v>
@@ -1854,7 +1848,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>50</v>
@@ -1865,7 +1859,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>50</v>
@@ -1953,7 +1947,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>50</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>50</v>
@@ -2041,7 +2035,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>50</v>
@@ -2052,7 +2046,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>50</v>
@@ -2129,7 +2123,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>50</v>
@@ -2217,7 +2211,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>50</v>
@@ -2228,7 +2222,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>50</v>
@@ -2239,7 +2233,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>50</v>
@@ -2283,7 +2277,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>50</v>
@@ -2294,7 +2288,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>50</v>
@@ -2305,7 +2299,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>50</v>
@@ -2316,7 +2310,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>50</v>
@@ -2327,7 +2321,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>50</v>
@@ -2349,7 +2343,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>50</v>
@@ -2371,7 +2365,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>50</v>
@@ -2382,7 +2376,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>50</v>
@@ -2404,7 +2398,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>50</v>
@@ -2459,7 +2453,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>4</v>
@@ -2470,7 +2464,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>4</v>
@@ -2492,7 +2486,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>4</v>
@@ -2514,7 +2508,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>4</v>
@@ -2547,7 +2541,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>4</v>
@@ -2569,7 +2563,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -2580,7 +2574,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -2646,7 +2640,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -2668,7 +2662,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -2679,7 +2673,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -2712,7 +2706,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -2723,7 +2717,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -2745,7 +2739,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -2800,7 +2794,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -2811,7 +2805,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -2866,7 +2860,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>4</v>
@@ -2888,7 +2882,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>4</v>
@@ -2899,7 +2893,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>4</v>
@@ -2910,7 +2904,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>4</v>
@@ -2954,7 +2948,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>4</v>
@@ -2987,7 +2981,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>4</v>
@@ -2998,7 +2992,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>4</v>
@@ -3009,7 +3003,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>4</v>
